--- a/1.基本設計書/3.画面レイアウト/1-3-5_レイアウト_顧客情報消去画面.xlsx
+++ b/1.基本設計書/3.画面レイアウト/1-3-5_レイアウト_顧客情報消去画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\3.画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE238BC-0B79-4814-B3B0-2BA0D2757524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B41978-5AA2-4A16-A730-D3444485819A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10575" yWindow="60" windowWidth="18210" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10560" yWindow="255" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>プロジェクト名</t>
   </si>
@@ -74,35 +74,11 @@
     <t>修正日</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>生年月日 :</t>
-  </si>
-  <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>月</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>エラーメッセージを表示</t>
-  </si>
-  <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>ID :</t>
-  </si>
-  <si>
-    <t>性別 :</t>
   </si>
   <si>
     <t>顧客情報消去画面</t>
@@ -116,39 +92,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>会員情報を</t>
-  </si>
-  <si>
-    <t>消去</t>
-  </si>
-  <si>
-    <t>注意事項</t>
-  </si>
-  <si>
-    <t>・他者のデータを消去する場合、よく確認してください。</t>
-  </si>
-  <si>
-    <t>・自分のデータを消去する場合ログイン画面に戻されます。</t>
-  </si>
-  <si>
-    <t>　再ログインの際には新規でデータを作成してください。</t>
-  </si>
-  <si>
-    <t>表示</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Pass :</t>
-  </si>
-  <si>
-    <t>郵便番号 :</t>
-  </si>
-  <si>
-    <t>クリア</t>
-  </si>
-  <si>
     <t>顧客情報消去画面</t>
     <rPh sb="4" eb="6">
       <t>ショウキョ</t>
@@ -158,87 +101,12 @@
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
-  <si>
-    <t>▽</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>氏名(苗字) :</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミョウジ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>氏名(名前) :</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>カナ(苗字) :</t>
-    <rPh sb="3" eb="5">
-      <t>ミョウジ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>カナ(名前) :</t>
-    <rPh sb="3" eb="5">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>※「000-0000」のように「-」を書いてください</t>
-  </si>
-  <si>
-    <t>住所（都道府県） :</t>
-    <rPh sb="3" eb="7">
-      <t>トドウフケン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>住所（市区郡） :</t>
-    <rPh sb="3" eb="6">
-      <t>シクグン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>住所（町大字） :</t>
-    <rPh sb="3" eb="4">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>オオアザ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>住所（建物） :</t>
-    <rPh sb="3" eb="5">
-      <t>タテモノ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$-411]General"/>
-  </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,13 +192,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -406,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -546,128 +407,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -714,89 +458,29 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,7 +489,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -815,11 +499,56 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -857,41 +586,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -901,7 +601,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="56" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -914,179 +617,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1104,6 +643,3703 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>35243</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A78F531F-ABCC-4F3D-B3AF-51205038F830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="590550"/>
+          <a:ext cx="1628775" cy="492443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>会員情報を</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>35243</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DAC4256-65E6-436C-9C43-23833E1290F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="590550"/>
+          <a:ext cx="847725" cy="492443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>消去</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>89174</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>37592</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4369B6D7-5057-4E7C-8535-4BD452587B57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="1228725"/>
+          <a:ext cx="746399" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>注意事項</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3CECD8-95B2-445D-8CD8-6CB02530D2CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552449" y="1514475"/>
+          <a:ext cx="3848101" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180467</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADFC4F3-3639-4F1B-A0C1-8F3AA364FF4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="1581150"/>
+          <a:ext cx="3467100" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・他者のデータを消去する場合、よく確認してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9017</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D6E24E-5B46-42C4-BC33-56C8E8F6F04C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="1828800"/>
+          <a:ext cx="3810000" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・自分のデータを消去する場合ログイン画面に戻されます。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47117</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21D8242-C6ED-4B99-8FEE-FD660EEBCC69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="2076450"/>
+          <a:ext cx="3467100" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　再ログインの際には新規でデータを作成してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>183543</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>58340</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28067</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="グループ化 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B219AD02-C3DC-4E61-81FE-A65AC8544957}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2174268" y="2686050"/>
+          <a:ext cx="2351297" cy="275717"/>
+          <a:chOff x="6384318" y="2085975"/>
+          <a:chExt cx="2351297" cy="275717"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FF0ADE-2E8A-46BA-8119-1E6B132128CE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6857571" y="2137132"/>
+            <a:ext cx="1878044" cy="206676"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="テキスト ボックス 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4158EF-0F97-4F84-ABDE-5348A8097BA1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6384318" y="2085975"/>
+            <a:ext cx="583558" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Pass : </a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>135918</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>34274</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B20FD90-AB87-46C1-B7CA-8F6379AC65AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="466725" y="2692257"/>
+          <a:ext cx="1659918" cy="275717"/>
+          <a:chOff x="4676775" y="2092182"/>
+          <a:chExt cx="1659918" cy="275717"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75628160-E758-4D1E-8978-0032C2CFBC56}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4990671" y="2143339"/>
+            <a:ext cx="1346022" cy="196494"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="テキスト ボックス 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6DDD9A-5B03-4670-8491-D5EC6336AC31}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4676775" y="2092182"/>
+            <a:ext cx="425437" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t> : </a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15732</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{662A93B8-62B7-4B1F-A3DD-6FB4797D8C0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4772025" y="2581275"/>
+          <a:ext cx="762000" cy="368157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E1D53BB-7B6C-44A3-86F8-FE18ED30D6AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542926" y="3105151"/>
+          <a:ext cx="6457950" cy="2533650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>162747</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{069C3699-D4FE-4D5B-BEC6-D19864BFA6A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962026" y="3238501"/>
+          <a:ext cx="1000946" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>氏名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>苗字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>) : </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>162746</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D78764-5776-458F-BC54-4114E7EE85AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="3452545"/>
+          <a:ext cx="1000946" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>カナ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>苗字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>) : </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>71491</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>116655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165670</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A32685AD-98DE-4371-B471-05875F8EBB5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1871716" y="3259905"/>
+          <a:ext cx="856179" cy="214045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>71492</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165671</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>125644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C3B35F-5EB6-479E-895A-6F2DC7760D5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1871717" y="3473949"/>
+          <a:ext cx="856179" cy="214045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>90757</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>116653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>139203</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{772A0169-E3B2-436C-A7D0-EB1DB687139A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2652982" y="3259903"/>
+          <a:ext cx="1000946" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>氏名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>名前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>) : </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>90756</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>139202</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>187314</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47198790-EF68-4532-9016-3C325190EC9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2652981" y="3473947"/>
+          <a:ext cx="1000946" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>カナ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>名前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>) : </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47947</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142126</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142552</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA59CEEA-8E44-4262-B8BC-3BEEFB33FD8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562672" y="3281307"/>
+          <a:ext cx="856179" cy="214045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47948</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142127</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>147046</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E0387E-AB34-4AEC-86B0-BDB7D988A5F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562673" y="3495351"/>
+          <a:ext cx="856179" cy="214045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>71494</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13702</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>81124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E632BDA3-02F3-4887-BA73-EDD4C5EB7894}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1871719" y="3848529"/>
+          <a:ext cx="513708" cy="214045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>56508</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>169951</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123931</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2499C230-55C3-42ED-86FA-8BB4BAD7A76F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333233" y="3848528"/>
+          <a:ext cx="684943" cy="256853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>▽</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>20228</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>173449</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>110688</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1392D4C-1905-4333-B5C7-39C60D8FC6E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="972728" y="3816421"/>
+          <a:ext cx="1000946" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>生年月日 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>129283</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>96392</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142795</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA4ED07-91C0-482D-A244-7C2139C76705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2310508" y="3848528"/>
+          <a:ext cx="348109" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>58649</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>146407</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3764768C-DC5C-4C4A-AA3B-824674E95DA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2620874" y="3848527"/>
+          <a:ext cx="278258" cy="224748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>82194</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>65925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>49303</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>132092</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B999C1-A474-44B8-9DFC-E5090ABB57CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2834919" y="3837825"/>
+          <a:ext cx="348109" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>32964</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>120722</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89750702-3A41-4610-B8D5-B7C71A871D1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3166689" y="3848528"/>
+          <a:ext cx="278258" cy="224748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>45807</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>65926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12916</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>132093</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAAF2EA1-3F0F-444E-B9D1-DB4E2A4B8A29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3370032" y="3837826"/>
+          <a:ext cx="348109" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>日</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>146407</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>65925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>147763</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>132092</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19CA35C-C1C2-4801-9EC1-74885C9532AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3851632" y="3837825"/>
+          <a:ext cx="572856" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>性別 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>172093</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175483</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9318DF-E8F9-4063-AF38-D1AD14CA4AFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1124593" y="4286251"/>
+          <a:ext cx="851115" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>郵便番号 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>62824</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>148441</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>131850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58349E10-5CD7-4F51-AA7B-A201D1752499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1863049" y="4318355"/>
+          <a:ext cx="1038117" cy="214045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>32859</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>116654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>49981</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>118607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDA7D3F-1612-4E9E-9C13-0672896DE8D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2976084" y="4307654"/>
+          <a:ext cx="2493622" cy="211503"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>000-0000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>」のように「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>」を書いてください</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>125003</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175483</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79EB9F4C-CB93-403A-AAFD-0F438768EB68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="696503" y="4500295"/>
+          <a:ext cx="1279205" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>住所</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>都道府県</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>164780</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>170407</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B47C9E-A4AD-49E5-BAA0-05E3476734A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="4714340"/>
+          <a:ext cx="1279205" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>住所</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>市区郡</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>108733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>164781</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>174900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08694FE2-E9EB-449F-8296-755181B29E6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685801" y="4928383"/>
+          <a:ext cx="1279205" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>住所</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>町大字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>164780</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>179396</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07EF0FB-D783-4F2C-B7EC-0087D931364C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5142429"/>
+          <a:ext cx="1279205" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>住所</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>建物</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>62824</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>131851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>176267</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>125644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D2901DC-9A6D-4CFF-99CA-2DD5D5804AAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1863049" y="4532401"/>
+          <a:ext cx="684943" cy="203343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>▽</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>62823</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>125644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>157002</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>130139</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C7F02F-DE9A-48CC-8E4F-E141E5B60D30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1863048" y="4735744"/>
+          <a:ext cx="856179" cy="214045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>62822</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>130139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>15732</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>134634</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B269365-0DAC-4E9C-99D4-48C0AA55BFB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1863047" y="4949789"/>
+          <a:ext cx="4334410" cy="214045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>62823</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>134635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>30717</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3AC83F-4507-4FDE-8EEE-CEADBCDFF05D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1863048" y="5163835"/>
+          <a:ext cx="2825394" cy="214045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05FB2906-C60D-4E12-B0E2-19BA6D933060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542926" y="5905500"/>
+          <a:ext cx="1057274" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>画面を戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8327</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>30445</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CFE4E54-BEBD-4CF4-8503-64D75AE3F673}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="5638800"/>
+          <a:ext cx="1551377" cy="259045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>エラーメッセージを表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34614D95-D503-49F3-84C5-B31599514141}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="5905500"/>
+          <a:ext cx="809625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>消去</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DCA585F-A608-4A17-AAE7-B073BBCAA0E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="5905500"/>
+          <a:ext cx="809625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>クリア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1406,7 +4642,7 @@
   <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC21" sqref="AC21"/>
+      <selection activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1716,28 +4952,28 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="69" t="s">
-        <v>21</v>
+      <c r="H10" s="43" t="s">
+        <v>13</v>
       </c>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="70"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="71"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="45"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
@@ -1751,26 +4987,26 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="74"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="48"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
@@ -1784,26 +5020,26 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="74"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="48"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
@@ -1817,28 +5053,28 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="72" t="s">
-        <v>18</v>
+      <c r="H13" s="46" t="s">
+        <v>12</v>
       </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="74"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="48"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
@@ -1852,26 +5088,26 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="74"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="48"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
@@ -1885,26 +5121,26 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="77"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="50"/>
+      <c r="Z15" s="50"/>
+      <c r="AA15" s="51"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
@@ -2150,28 +5386,28 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="57" t="s">
+      <c r="I23" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="57" t="s">
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="59"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="54"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
@@ -2187,24 +5423,24 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="61"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="62"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="57"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
@@ -2220,28 +5456,28 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="57" t="s">
+      <c r="I25" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="57" t="s">
-        <v>34</v>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="52" t="s">
+        <v>15</v>
       </c>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="59"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="53"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="54"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
@@ -2257,24 +5493,24 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="61"/>
-      <c r="V26" s="61"/>
-      <c r="W26" s="61"/>
-      <c r="X26" s="61"/>
-      <c r="Y26" s="61"/>
-      <c r="Z26" s="62"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="57"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
@@ -2290,28 +5526,28 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="57" t="s">
+      <c r="I27" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="57" t="s">
-        <v>22</v>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="52" t="s">
+        <v>14</v>
       </c>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="59"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="54"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
@@ -2327,24 +5563,24 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="61"/>
-      <c r="W28" s="61"/>
-      <c r="X28" s="61"/>
-      <c r="Y28" s="61"/>
-      <c r="Z28" s="62"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="57"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
@@ -2360,28 +5596,28 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="57" t="s">
+      <c r="I29" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="63">
-        <v>44525</v>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="58">
+        <v>44526</v>
       </c>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="65"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="60"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
@@ -2397,24 +5633,24 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="67"/>
-      <c r="V30" s="67"/>
-      <c r="W30" s="67"/>
-      <c r="X30" s="67"/>
-      <c r="Y30" s="67"/>
-      <c r="Z30" s="68"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="63"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
@@ -2430,28 +5666,28 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="57" t="s">
+      <c r="I31" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="57" t="s">
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="59"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="53"/>
+      <c r="W31" s="53"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="54"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
@@ -2467,24 +5703,24 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="61"/>
-      <c r="S32" s="61"/>
-      <c r="T32" s="61"/>
-      <c r="U32" s="61"/>
-      <c r="V32" s="61"/>
-      <c r="W32" s="61"/>
-      <c r="X32" s="61"/>
-      <c r="Y32" s="61"/>
-      <c r="Z32" s="62"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="57"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
@@ -2500,28 +5736,28 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="57" t="s">
+      <c r="I33" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="63">
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="58">
         <v>44505</v>
       </c>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="64"/>
-      <c r="T33" s="64"/>
-      <c r="U33" s="64"/>
-      <c r="V33" s="64"/>
-      <c r="W33" s="64"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="64"/>
-      <c r="Z33" s="65"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="60"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
@@ -2537,24 +5773,24 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="67"/>
-      <c r="R34" s="67"/>
-      <c r="S34" s="67"/>
-      <c r="T34" s="67"/>
-      <c r="U34" s="67"/>
-      <c r="V34" s="67"/>
-      <c r="W34" s="67"/>
-      <c r="X34" s="67"/>
-      <c r="Y34" s="67"/>
-      <c r="Z34" s="68"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="63"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
@@ -2563,12 +5799,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H10:AA12"/>
-    <mergeCell ref="H13:AA15"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="O23:Z24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
     <mergeCell ref="I27:N28"/>
@@ -2577,6 +5807,12 @@
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="I31:N32"/>
     <mergeCell ref="O31:Z32"/>
+    <mergeCell ref="H10:AA12"/>
+    <mergeCell ref="H13:AA15"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="O23:Z24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2592,7 +5828,7 @@
   <dimension ref="A1:AX36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+      <selection activeCell="AJ35" sqref="AJ35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2608,133 +5844,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="82" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83" t="str">
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="81" t="str">
         <f>表紙!O25</f>
         <v>顧客情報消去画面</v>
       </c>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="84" t="s">
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="86" t="s">
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="88"/>
-      <c r="AO1" s="91" t="s">
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="AP1" s="92"/>
-      <c r="AQ1" s="92"/>
-      <c r="AR1" s="93"/>
-      <c r="AS1" s="86" t="s">
+      <c r="AP1" s="75"/>
+      <c r="AQ1" s="75"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AT1" s="87"/>
-      <c r="AU1" s="87"/>
-      <c r="AV1" s="87"/>
-      <c r="AW1" s="87"/>
-      <c r="AX1" s="88"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="68"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="82" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="84" t="s">
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="90">
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="73">
         <v>44505</v>
       </c>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="91" t="s">
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="92"/>
-      <c r="AQ2" s="92"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="90">
-        <v>44525</v>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="76"/>
+      <c r="AS2" s="73">
+        <v>44526</v>
       </c>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="87"/>
-      <c r="AV2" s="87"/>
-      <c r="AW2" s="87"/>
-      <c r="AX2" s="88"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="68"/>
     </row>
     <row r="3" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
@@ -2792,22 +6028,18 @@
       <c r="A4" s="11"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
@@ -2841,18 +6073,18 @@
       <c r="A5" s="11"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
@@ -2931,9 +6163,7 @@
       <c r="A7" s="11"/>
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="24" t="s">
-        <v>25</v>
-      </c>
+      <c r="D7" s="24"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -2978,28 +6208,28 @@
       <c r="A8" s="11"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="29"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
       <c r="Z8" s="23"/>
       <c r="AA8" s="19"/>
       <c r="AB8" s="19"/>
@@ -3023,30 +6253,28 @@
       <c r="A9" s="11"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="34"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
       <c r="Z9" s="23"/>
       <c r="AA9" s="19"/>
       <c r="AB9" s="19"/>
@@ -3070,30 +6298,28 @@
       <c r="A10" s="11"/>
       <c r="B10" s="5"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="34"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
       <c r="Z10" s="23"/>
       <c r="AA10" s="19"/>
       <c r="AB10" s="19"/>
@@ -3117,9 +6343,7 @@
       <c r="A11" s="11"/>
       <c r="B11" s="5"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="35" t="s">
-        <v>28</v>
-      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -3140,7 +6364,7 @@
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="36"/>
+      <c r="Y11" s="5"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="19"/>
       <c r="AB11" s="19"/>
@@ -3164,28 +6388,28 @@
       <c r="A12" s="11"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="39"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
@@ -3273,16 +6497,14 @@
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
-      <c r="W14" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="X14" s="103"/>
-      <c r="Y14" s="103"/>
-      <c r="Z14" s="104"/>
-      <c r="AA14" s="108"/>
-      <c r="AB14" s="108"/>
-      <c r="AC14" s="108"/>
-      <c r="AD14" s="108"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
@@ -3301,37 +6523,33 @@
       <c r="A15" s="11"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="105"/>
-      <c r="X15" s="106"/>
-      <c r="Y15" s="106"/>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="108"/>
-      <c r="AB15" s="108"/>
-      <c r="AC15" s="108"/>
-      <c r="AD15" s="108"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
@@ -3350,33 +6568,33 @@
       <c r="A16" s="11"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="108"/>
-      <c r="AB16" s="108"/>
-      <c r="AC16" s="108"/>
-      <c r="AD16" s="108"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
@@ -3395,40 +6613,42 @@
       <c r="A17" s="11"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="139"/>
-      <c r="O17" s="139"/>
-      <c r="P17" s="139"/>
-      <c r="Q17" s="139"/>
-      <c r="R17" s="139"/>
-      <c r="S17" s="139"/>
-      <c r="T17" s="139"/>
-      <c r="U17" s="139"/>
-      <c r="V17" s="139"/>
-      <c r="W17" s="139"/>
-      <c r="X17" s="139"/>
-      <c r="Y17" s="139"/>
-      <c r="Z17" s="139"/>
-      <c r="AA17" s="139"/>
-      <c r="AB17" s="139"/>
-      <c r="AC17" s="139"/>
-      <c r="AD17" s="139"/>
-      <c r="AE17" s="139"/>
-      <c r="AF17" s="139"/>
-      <c r="AG17" s="139"/>
-      <c r="AH17" s="139"/>
-      <c r="AI17" s="140"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
       <c r="AJ17" s="9"/>
-      <c r="AK17" s="6"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
       <c r="AS17" s="6"/>
       <c r="AT17" s="6"/>
       <c r="AU17" s="6"/>
@@ -3440,19 +6660,17 @@
       <c r="A18" s="11"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="141"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="123"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
-      <c r="N18" s="125"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -3473,9 +6691,11 @@
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
-      <c r="AI18" s="142"/>
+      <c r="AI18" s="5"/>
       <c r="AJ18" s="9"/>
-      <c r="AK18" s="6"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="16"/>
       <c r="AS18" s="6"/>
       <c r="AT18" s="6"/>
       <c r="AU18" s="6"/>
@@ -3487,24 +6707,22 @@
       <c r="A19" s="11"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="141"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="129"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="130"/>
-      <c r="R19" s="130"/>
-      <c r="S19" s="131"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -3520,9 +6738,11 @@
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
-      <c r="AI19" s="142"/>
+      <c r="AI19" s="5"/>
       <c r="AJ19" s="9"/>
-      <c r="AK19" s="6"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="16"/>
       <c r="AS19" s="6"/>
       <c r="AT19" s="6"/>
       <c r="AU19" s="6"/>
@@ -3534,33 +6754,29 @@
       <c r="A20" s="11"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="143" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="128"/>
-      <c r="O20" s="143" t="s">
-        <v>37</v>
-      </c>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="143"/>
-      <c r="S20" s="143"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="112"/>
-      <c r="V20" s="112"/>
-      <c r="W20" s="112"/>
-      <c r="X20" s="113"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
       <c r="Y20" s="9"/>
-      <c r="Z20" s="33"/>
+      <c r="Z20" s="27"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
@@ -3569,9 +6785,11 @@
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
-      <c r="AI20" s="142"/>
+      <c r="AI20" s="5"/>
       <c r="AJ20" s="9"/>
-      <c r="AK20" s="6"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
       <c r="AS20" s="6"/>
       <c r="AT20" s="6"/>
       <c r="AU20" s="6"/>
@@ -3583,33 +6801,29 @@
       <c r="A21" s="11"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="143" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="143" t="s">
-        <v>39</v>
-      </c>
-      <c r="P21" s="143"/>
-      <c r="Q21" s="143"/>
-      <c r="R21" s="143"/>
-      <c r="S21" s="143"/>
-      <c r="T21" s="111"/>
-      <c r="U21" s="112"/>
-      <c r="V21" s="112"/>
-      <c r="W21" s="112"/>
-      <c r="X21" s="113"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="83"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
       <c r="Y21" s="14"/>
-      <c r="Z21" s="33"/>
+      <c r="Z21" s="27"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
@@ -3618,9 +6832,11 @@
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
-      <c r="AI21" s="142"/>
+      <c r="AI21" s="5"/>
       <c r="AJ21" s="9"/>
-      <c r="AK21" s="6"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="16"/>
       <c r="AS21" s="6"/>
       <c r="AT21" s="6"/>
       <c r="AU21" s="6"/>
@@ -3632,29 +6848,29 @@
       <c r="A22" s="11"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="145"/>
-      <c r="N22" s="145"/>
-      <c r="O22" s="144"/>
-      <c r="P22" s="144"/>
-      <c r="Q22" s="144"/>
-      <c r="R22" s="144"/>
-      <c r="S22" s="144"/>
-      <c r="T22" s="145"/>
-      <c r="U22" s="145"/>
-      <c r="V22" s="145"/>
-      <c r="W22" s="145"/>
-      <c r="X22" s="145"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
       <c r="Y22" s="14"/>
-      <c r="Z22" s="33"/>
+      <c r="Z22" s="27"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
@@ -3663,9 +6879,11 @@
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
-      <c r="AI22" s="142"/>
+      <c r="AI22" s="5"/>
       <c r="AJ22" s="9"/>
-      <c r="AK22" s="6"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="16"/>
+      <c r="AM22" s="16"/>
       <c r="AS22" s="6"/>
       <c r="AT22" s="6"/>
       <c r="AU22" s="6"/>
@@ -3677,41 +6895,29 @@
       <c r="A23" s="11"/>
       <c r="B23" s="10"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="143" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="N23" s="117"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="T23" s="143" t="s">
-        <v>20</v>
-      </c>
-      <c r="U23" s="143"/>
-      <c r="V23" s="119"/>
-      <c r="W23" s="120"/>
-      <c r="X23" s="121"/>
-      <c r="Y23" s="122" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z23" s="33"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="27"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
@@ -3720,9 +6926,11 @@
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
-      <c r="AI23" s="142"/>
+      <c r="AI23" s="5"/>
       <c r="AJ23" s="9"/>
-      <c r="AK23" s="6"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="16"/>
+      <c r="AM23" s="16"/>
       <c r="AS23" s="6"/>
       <c r="AT23" s="6"/>
       <c r="AU23" s="6"/>
@@ -3734,29 +6942,29 @@
       <c r="A24" s="11"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
@@ -3765,9 +6973,11 @@
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
-      <c r="AI24" s="142"/>
+      <c r="AI24" s="5"/>
       <c r="AJ24" s="9"/>
-      <c r="AK24" s="6"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="16"/>
+      <c r="AM24" s="16"/>
       <c r="AS24" s="6"/>
       <c r="AT24" s="6"/>
       <c r="AU24" s="6"/>
@@ -3778,25 +6988,21 @@
     <row r="25" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="146" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="115"/>
-      <c r="O25" s="116"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
       <c r="P25" s="14"/>
-      <c r="Q25" s="14" t="s">
-        <v>40</v>
-      </c>
+      <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
@@ -3814,9 +7020,11 @@
       <c r="AF25" s="14"/>
       <c r="AG25" s="14"/>
       <c r="AH25" s="5"/>
-      <c r="AI25" s="142"/>
+      <c r="AI25" s="5"/>
       <c r="AJ25" s="9"/>
-      <c r="AK25" s="6"/>
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="16"/>
+      <c r="AM25" s="16"/>
       <c r="AS25" s="6"/>
       <c r="AT25" s="6"/>
       <c r="AU25" s="6"/>
@@ -3827,45 +7035,43 @@
     <row r="26" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="146" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="133"/>
-      <c r="M26" s="134" t="s">
-        <v>35</v>
-      </c>
-      <c r="N26" s="137"/>
-      <c r="O26" s="147"/>
-      <c r="P26" s="137"/>
-      <c r="Q26" s="137"/>
-      <c r="R26" s="137"/>
-      <c r="S26" s="137"/>
-      <c r="T26" s="137"/>
-      <c r="U26" s="137"/>
-      <c r="V26" s="137"/>
-      <c r="W26" s="137"/>
-      <c r="X26" s="137"/>
-      <c r="Y26" s="137"/>
-      <c r="Z26" s="137"/>
-      <c r="AA26" s="137"/>
-      <c r="AB26" s="137"/>
-      <c r="AC26" s="137"/>
-      <c r="AD26" s="137"/>
-      <c r="AE26" s="137"/>
-      <c r="AF26" s="137"/>
-      <c r="AG26" s="137"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="39"/>
+      <c r="AF26" s="39"/>
+      <c r="AG26" s="39"/>
       <c r="AH26" s="5"/>
-      <c r="AI26" s="142"/>
+      <c r="AI26" s="5"/>
       <c r="AJ26" s="9"/>
-      <c r="AK26" s="6"/>
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="16"/>
+      <c r="AM26" s="16"/>
       <c r="AS26" s="6"/>
       <c r="AT26" s="6"/>
       <c r="AU26" s="6"/>
@@ -3876,43 +7082,43 @@
     <row r="27" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="146" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="137"/>
-      <c r="P27" s="137"/>
-      <c r="Q27" s="137"/>
-      <c r="R27" s="137"/>
-      <c r="S27" s="137"/>
-      <c r="T27" s="137"/>
-      <c r="U27" s="137"/>
-      <c r="V27" s="137"/>
-      <c r="W27" s="137"/>
-      <c r="X27" s="137"/>
-      <c r="Y27" s="137"/>
-      <c r="Z27" s="137"/>
-      <c r="AA27" s="137"/>
-      <c r="AB27" s="137"/>
-      <c r="AC27" s="137"/>
-      <c r="AD27" s="137"/>
-      <c r="AE27" s="137"/>
-      <c r="AF27" s="137"/>
-      <c r="AG27" s="137"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+      <c r="AF27" s="39"/>
+      <c r="AG27" s="39"/>
       <c r="AH27" s="5"/>
-      <c r="AI27" s="142"/>
+      <c r="AI27" s="5"/>
       <c r="AJ27" s="9"/>
-      <c r="AK27" s="6"/>
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="16"/>
+      <c r="AM27" s="16"/>
       <c r="AS27" s="6"/>
       <c r="AT27" s="6"/>
       <c r="AU27" s="6"/>
@@ -3923,43 +7129,43 @@
     <row r="28" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="146" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="136"/>
-      <c r="Q28" s="136"/>
-      <c r="R28" s="136"/>
-      <c r="S28" s="136"/>
-      <c r="T28" s="136"/>
-      <c r="U28" s="136"/>
-      <c r="V28" s="136"/>
-      <c r="W28" s="136"/>
-      <c r="X28" s="136"/>
-      <c r="Y28" s="136"/>
-      <c r="Z28" s="136"/>
-      <c r="AA28" s="136"/>
-      <c r="AB28" s="136"/>
-      <c r="AC28" s="136"/>
-      <c r="AD28" s="136"/>
-      <c r="AE28" s="136"/>
-      <c r="AF28" s="136"/>
-      <c r="AG28" s="118"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="39"/>
       <c r="AH28" s="5"/>
-      <c r="AI28" s="142"/>
+      <c r="AI28" s="5"/>
       <c r="AJ28" s="9"/>
-      <c r="AK28" s="6"/>
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="16"/>
+      <c r="AM28" s="16"/>
       <c r="AS28" s="6"/>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
@@ -3970,43 +7176,43 @@
     <row r="29" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="146" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="136"/>
-      <c r="Q29" s="136"/>
-      <c r="R29" s="136"/>
-      <c r="S29" s="136"/>
-      <c r="T29" s="136"/>
-      <c r="U29" s="136"/>
-      <c r="V29" s="136"/>
-      <c r="W29" s="136"/>
-      <c r="X29" s="136"/>
-      <c r="Y29" s="118"/>
-      <c r="Z29" s="137"/>
-      <c r="AA29" s="137"/>
-      <c r="AB29" s="137"/>
-      <c r="AC29" s="137"/>
-      <c r="AD29" s="137"/>
-      <c r="AE29" s="137"/>
-      <c r="AF29" s="137"/>
-      <c r="AG29" s="137"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="39"/>
+      <c r="AF29" s="39"/>
+      <c r="AG29" s="39"/>
       <c r="AH29" s="5"/>
-      <c r="AI29" s="142"/>
+      <c r="AI29" s="5"/>
       <c r="AJ29" s="9"/>
-      <c r="AK29" s="6"/>
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="16"/>
+      <c r="AM29" s="16"/>
       <c r="AS29" s="6"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -4017,41 +7223,43 @@
     <row r="30" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-      <c r="N30" s="149"/>
-      <c r="O30" s="149"/>
-      <c r="P30" s="149"/>
-      <c r="Q30" s="149"/>
-      <c r="R30" s="149"/>
-      <c r="S30" s="149"/>
-      <c r="T30" s="149"/>
-      <c r="U30" s="149"/>
-      <c r="V30" s="150"/>
-      <c r="W30" s="150"/>
-      <c r="X30" s="150"/>
-      <c r="Y30" s="150"/>
-      <c r="Z30" s="150"/>
-      <c r="AA30" s="150"/>
-      <c r="AB30" s="150"/>
-      <c r="AC30" s="150"/>
-      <c r="AD30" s="150"/>
-      <c r="AE30" s="150"/>
-      <c r="AF30" s="151"/>
-      <c r="AG30" s="151"/>
-      <c r="AH30" s="151"/>
-      <c r="AI30" s="152"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="33"/>
+      <c r="AD30" s="33"/>
+      <c r="AE30" s="33"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
       <c r="AJ30" s="9"/>
-      <c r="AK30" s="6"/>
+      <c r="AK30" s="9"/>
+      <c r="AL30" s="16"/>
+      <c r="AM30" s="16"/>
       <c r="AS30" s="6"/>
       <c r="AT30" s="6"/>
       <c r="AU30" s="6"/>
@@ -4063,9 +7271,7 @@
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="54" t="s">
-        <v>17</v>
-      </c>
+      <c r="D31" s="34"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
@@ -4083,16 +7289,16 @@
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="53"/>
-      <c r="AD31" s="53"/>
-      <c r="AE31" s="53"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="33"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="33"/>
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
@@ -4129,18 +7335,14 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
-      <c r="AB32" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="96"/>
-      <c r="AF32" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG32" s="95"/>
-      <c r="AH32" s="95"/>
-      <c r="AI32" s="96"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+      <c r="AH32" s="35"/>
+      <c r="AI32" s="35"/>
       <c r="AJ32" s="6"/>
       <c r="AK32" s="6"/>
       <c r="AU32" s="6"/>
@@ -4171,14 +7373,14 @@
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
-      <c r="AB33" s="97"/>
-      <c r="AC33" s="98"/>
-      <c r="AD33" s="98"/>
-      <c r="AE33" s="99"/>
-      <c r="AF33" s="97"/>
-      <c r="AG33" s="98"/>
-      <c r="AH33" s="98"/>
-      <c r="AI33" s="99"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="35"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="35"/>
+      <c r="AI33" s="35"/>
       <c r="AJ33" s="6"/>
       <c r="AK33" s="6"/>
       <c r="AU33" s="6"/>
@@ -4199,21 +7401,21 @@
       <c r="J34" s="12"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="109"/>
-      <c r="N34" s="109"/>
-      <c r="O34" s="109"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="110"/>
-      <c r="R34" s="110"/>
-      <c r="S34" s="110"/>
-      <c r="T34" s="110"/>
-      <c r="U34" s="110"/>
-      <c r="V34" s="110"/>
-      <c r="W34" s="110"/>
-      <c r="X34" s="110"/>
-      <c r="Y34" s="110"/>
-      <c r="Z34" s="110"/>
-      <c r="AA34" s="110"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="65"/>
+      <c r="U34" s="65"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="65"/>
+      <c r="AA34" s="65"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
@@ -4251,21 +7453,21 @@
       <c r="J35" s="12"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-      <c r="AA35" s="50"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
@@ -4340,32 +7542,12 @@
       <c r="AW36" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="Q34:AA34"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:O25"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="AF32:AI33"/>
-    <mergeCell ref="D4:K5"/>
-    <mergeCell ref="L4:O5"/>
-    <mergeCell ref="W14:Z15"/>
-    <mergeCell ref="AB32:AE33"/>
-    <mergeCell ref="AA14:AD16"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
+  <mergeCells count="15">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="AS1:AX1"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="S2:AD2"/>
@@ -4374,14 +7556,12 @@
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AS2:AX2"/>
     <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="Q34:AA34"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1.基本設計書/3.画面レイアウト/1-3-5_レイアウト_顧客情報消去画面.xlsx
+++ b/1.基本設計書/3.画面レイアウト/1-3-5_レイアウト_顧客情報消去画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\3.画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B41978-5AA2-4A16-A730-D3444485819A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECEAA8F-526A-41FB-B5E4-FB9542C1A6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="255" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9750" yWindow="75" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -523,32 +523,11 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -586,12 +565,41 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -601,10 +609,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="56" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -617,15 +622,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,156 +1130,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>183543</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>58340</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28067</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="グループ化 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B219AD02-C3DC-4E61-81FE-A65AC8544957}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2174268" y="2686050"/>
-          <a:ext cx="2351297" cy="275717"/>
-          <a:chOff x="6384318" y="2085975"/>
-          <a:chExt cx="2351297" cy="275717"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="正方形/長方形 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FF0ADE-2E8A-46BA-8119-1E6B132128CE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6857571" y="2137132"/>
-            <a:ext cx="1878044" cy="206676"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="テキスト ボックス 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4158EF-0F97-4F84-ABDE-5348A8097BA1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6384318" y="2085975"/>
-            <a:ext cx="583558" cy="275717"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="r"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Pass : </a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -1436,81 +1286,6 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>15732</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{662A93B8-62B7-4B1F-A3DD-6FB4797D8C0E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4772025" y="2581275"/>
-          <a:ext cx="762000" cy="368157"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -4952,28 +4727,28 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="45"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="59"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
@@ -4987,26 +4762,26 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="48"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="62"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
@@ -5020,26 +4795,26 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="48"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="62"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
@@ -5053,28 +4828,28 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="48"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="62"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
@@ -5088,26 +4863,26 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="48"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="62"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
@@ -5121,26 +4896,26 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="51"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="65"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
@@ -5386,28 +5161,28 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="52" t="s">
+      <c r="I23" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="52" t="s">
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="54"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="47"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
@@ -5423,24 +5198,24 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="57"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="50"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
@@ -5456,28 +5231,28 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="52" t="s">
+      <c r="I25" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="52" t="s">
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="54"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="47"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
@@ -5493,24 +5268,24 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="57"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="50"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
@@ -5526,28 +5301,28 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="52" t="s">
+      <c r="I27" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="52" t="s">
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="54"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="47"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
@@ -5563,24 +5338,24 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="57"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="50"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
@@ -5596,28 +5371,28 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="52" t="s">
+      <c r="I29" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="58">
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="51">
         <v>44526</v>
       </c>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="60"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="53"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
@@ -5633,24 +5408,24 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="63"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="56"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
@@ -5666,28 +5441,28 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="52" t="s">
+      <c r="I31" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="52" t="s">
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="54"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="47"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
@@ -5703,24 +5478,24 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="57"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="50"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
@@ -5736,28 +5511,28 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="52" t="s">
+      <c r="I33" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="58">
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="51">
         <v>44505</v>
       </c>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="60"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52"/>
+      <c r="Z33" s="53"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
@@ -5773,24 +5548,24 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
-      <c r="W34" s="62"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="63"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
+      <c r="Y34" s="55"/>
+      <c r="Z34" s="56"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
@@ -5799,6 +5574,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H10:AA12"/>
+    <mergeCell ref="H13:AA15"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="O23:Z24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
     <mergeCell ref="I27:N28"/>
@@ -5807,12 +5588,6 @@
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="I31:N32"/>
     <mergeCell ref="O31:Z32"/>
-    <mergeCell ref="H10:AA12"/>
-    <mergeCell ref="H13:AA15"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="O23:Z24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5828,7 +5603,7 @@
   <dimension ref="A1:AX36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AJ35" sqref="AJ35"/>
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5844,133 +5619,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="69" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="81" t="str">
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="71" t="str">
         <f>表紙!O25</f>
         <v>顧客情報消去画面</v>
       </c>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="71" t="s">
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="66" t="s">
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="74" t="s">
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="75"/>
+      <c r="AL1" s="75"/>
+      <c r="AM1" s="75"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="AP1" s="75"/>
-      <c r="AQ1" s="75"/>
-      <c r="AR1" s="76"/>
-      <c r="AS1" s="66" t="s">
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="68"/>
+      <c r="AT1" s="75"/>
+      <c r="AU1" s="75"/>
+      <c r="AV1" s="75"/>
+      <c r="AW1" s="75"/>
+      <c r="AX1" s="76"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="69" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="71" t="s">
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="73">
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="78">
         <v>44505</v>
       </c>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="74" t="s">
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="75"/>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="76"/>
-      <c r="AS2" s="73">
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="81"/>
+      <c r="AS2" s="78">
         <v>44526</v>
       </c>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="68"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="76"/>
     </row>
     <row r="3" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
@@ -6208,7 +5983,7 @@
       <c r="A8" s="11"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="82"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -6755,21 +6530,21 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
@@ -6802,21 +6577,21 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83"/>
-      <c r="S21" s="83"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
@@ -6896,11 +6671,11 @@
       <c r="B23" s="10"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
       <c r="J23" s="39"/>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
@@ -6911,9 +6686,9 @@
       <c r="Q23" s="39"/>
       <c r="R23" s="39"/>
       <c r="S23" s="14"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="83"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
@@ -7401,21 +7176,21 @@
       <c r="J34" s="12"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="65"/>
-      <c r="Z34" s="65"/>
-      <c r="AA34" s="65"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="83"/>
+      <c r="T34" s="83"/>
+      <c r="U34" s="83"/>
+      <c r="V34" s="83"/>
+      <c r="W34" s="83"/>
+      <c r="X34" s="83"/>
+      <c r="Y34" s="83"/>
+      <c r="Z34" s="83"/>
+      <c r="AA34" s="83"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
@@ -7543,11 +7318,8 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="Q34:AA34"/>
     <mergeCell ref="AS1:AX1"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="S2:AD2"/>
@@ -7556,12 +7328,15 @@
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AS2:AX2"/>
     <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="Q34:AA34"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1.基本設計書/3.画面レイアウト/1-3-5_レイアウト_顧客情報消去画面.xlsx
+++ b/1.基本設計書/3.画面レイアウト/1-3-5_レイアウト_顧客情報消去画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\3.画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECEAA8F-526A-41FB-B5E4-FB9542C1A6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7749BCC-D923-4936-98DD-20DE05FF4138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="75" windowWidth="17880" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="75" windowWidth="17325" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -529,6 +529,33 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -565,41 +592,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,7 +607,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="56" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -622,12 +623,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4037,83 +4037,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="正方形/長方形 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DCA585F-A608-4A17-AAE7-B073BBCAA0E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5381625" y="5905500"/>
-          <a:ext cx="809625" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>クリア</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4417,7 +4340,7 @@
   <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AG25" sqref="AG25"/>
+      <selection activeCell="O31" sqref="O31:Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4727,28 +4650,28 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="59"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="47"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
@@ -4762,26 +4685,26 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="62"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="50"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
@@ -4795,26 +4718,26 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="62"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="50"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
@@ -4828,28 +4751,28 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="62"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="50"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
@@ -4863,26 +4786,26 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="62"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="50"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
@@ -4896,26 +4819,26 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="65"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="53"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
@@ -5161,28 +5084,28 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="45" t="s">
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="46"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="47"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="56"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
@@ -5198,24 +5121,24 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="49"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="50"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="58"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="59"/>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
@@ -5231,28 +5154,28 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="45" t="s">
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="47"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="56"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
@@ -5268,24 +5191,24 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="49"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="50"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="59"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
@@ -5301,28 +5224,28 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="45" t="s">
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="47"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="56"/>
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
@@ -5338,24 +5261,24 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="50"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="59"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
@@ -5371,28 +5294,28 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="51">
-        <v>44526</v>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="60">
+        <v>44538</v>
       </c>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="53"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="62"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
@@ -5408,24 +5331,24 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="56"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="65"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
@@ -5441,28 +5364,28 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="45" t="s">
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="46"/>
-      <c r="W31" s="46"/>
-      <c r="X31" s="46"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="47"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="56"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
@@ -5478,24 +5401,24 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-      <c r="Y32" s="49"/>
-      <c r="Z32" s="50"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="59"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
@@ -5511,28 +5434,28 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="45" t="s">
+      <c r="I33" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="51">
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="60">
         <v>44505</v>
       </c>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="53"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="61"/>
+      <c r="W33" s="61"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="61"/>
+      <c r="Z33" s="62"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
@@ -5548,24 +5471,24 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="55"/>
-      <c r="Z34" s="56"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="64"/>
+      <c r="Z34" s="65"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
@@ -5574,12 +5497,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H10:AA12"/>
-    <mergeCell ref="H13:AA15"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="O23:Z24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
     <mergeCell ref="I27:N28"/>
@@ -5588,6 +5505,12 @@
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="I31:N32"/>
     <mergeCell ref="O31:Z32"/>
+    <mergeCell ref="H10:AA12"/>
+    <mergeCell ref="H13:AA15"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="O23:Z24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5603,7 +5526,7 @@
   <dimension ref="A1:AX36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+      <selection activeCell="AT25" sqref="AT25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5619,133 +5542,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="70" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="71" t="str">
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="83" t="str">
         <f>表紙!O25</f>
         <v>顧客情報消去画面</v>
       </c>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="72" t="s">
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="74" t="s">
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="75"/>
-      <c r="AK1" s="75"/>
-      <c r="AL1" s="75"/>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="79" t="s">
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="AP1" s="80"/>
-      <c r="AQ1" s="80"/>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="74" t="s">
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="AT1" s="75"/>
-      <c r="AU1" s="75"/>
-      <c r="AV1" s="75"/>
-      <c r="AW1" s="75"/>
-      <c r="AX1" s="76"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="69"/>
+      <c r="AV1" s="69"/>
+      <c r="AW1" s="69"/>
+      <c r="AX1" s="70"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="70" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="72" t="s">
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="78">
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="75">
         <v>44505</v>
       </c>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="79" t="s">
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="81"/>
-      <c r="AS2" s="78">
+      <c r="AP2" s="77"/>
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="78"/>
+      <c r="AS2" s="75">
         <v>44526</v>
       </c>
-      <c r="AT2" s="75"/>
-      <c r="AU2" s="75"/>
-      <c r="AV2" s="75"/>
-      <c r="AW2" s="75"/>
-      <c r="AX2" s="76"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="70"/>
     </row>
     <row r="3" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
@@ -7176,21 +7099,21 @@
       <c r="J34" s="12"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="83"/>
-      <c r="S34" s="83"/>
-      <c r="T34" s="83"/>
-      <c r="U34" s="83"/>
-      <c r="V34" s="83"/>
-      <c r="W34" s="83"/>
-      <c r="X34" s="83"/>
-      <c r="Y34" s="83"/>
-      <c r="Z34" s="83"/>
-      <c r="AA34" s="83"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
@@ -7318,6 +7241,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="M34:P34"/>
     <mergeCell ref="Q34:AA34"/>
     <mergeCell ref="AS1:AX1"/>
@@ -7328,11 +7256,6 @@
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AS2:AX2"/>
     <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
